--- a/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.15903479994937</v>
+        <v>24.04018411918775</v>
       </c>
       <c r="C2">
-        <v>12.60313862993092</v>
+        <v>12.99697276967033</v>
       </c>
       <c r="D2">
-        <v>2.23678238542339</v>
+        <v>5.024174773331385</v>
       </c>
       <c r="E2">
-        <v>6.255773224144331</v>
+        <v>7.21305180056217</v>
       </c>
       <c r="F2">
-        <v>41.51927552473153</v>
+        <v>23.22658012854972</v>
       </c>
       <c r="G2">
-        <v>2.131172367764504</v>
+        <v>2.10161746922519</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.052186022982661</v>
+        <v>5.673181547621044</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.235661068735368</v>
+        <v>7.671035931033495</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>31.6168144153156</v>
+        <v>17.22821207537595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.71658437413744</v>
+        <v>22.47967116534899</v>
       </c>
       <c r="C3">
-        <v>11.75150864330106</v>
+        <v>12.36918898951436</v>
       </c>
       <c r="D3">
-        <v>2.185467939237369</v>
+        <v>4.917996720326143</v>
       </c>
       <c r="E3">
-        <v>6.286810673695384</v>
+        <v>7.273746580645807</v>
       </c>
       <c r="F3">
-        <v>40.4131977950581</v>
+        <v>23.12565675814723</v>
       </c>
       <c r="G3">
-        <v>2.142393835560115</v>
+        <v>2.107870118034271</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.10690178376629</v>
+        <v>5.752285013972995</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.081079781859653</v>
+        <v>7.42552388991779</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>30.85188648731074</v>
+        <v>17.28284941248807</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80151876343961</v>
+        <v>21.46907537346724</v>
       </c>
       <c r="C4">
-        <v>11.20176623093296</v>
+        <v>11.96786445207257</v>
       </c>
       <c r="D4">
-        <v>2.154389225071605</v>
+        <v>4.853067163613556</v>
       </c>
       <c r="E4">
-        <v>6.307339741698982</v>
+        <v>7.31415817870737</v>
       </c>
       <c r="F4">
-        <v>39.75993846305494</v>
+        <v>23.09105860014314</v>
       </c>
       <c r="G4">
-        <v>2.149439923951669</v>
+        <v>2.111823382919739</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.141789683626322</v>
+        <v>5.802241345115974</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.988796039236981</v>
+        <v>7.27292868078009</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>30.40393228810503</v>
+        <v>17.33715275836503</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.42149269725174</v>
+        <v>21.04410568596876</v>
       </c>
       <c r="C5">
-        <v>10.97090671622528</v>
+        <v>11.8004622250143</v>
       </c>
       <c r="D5">
-        <v>2.141808975293646</v>
+        <v>4.826700716453339</v>
       </c>
       <c r="E5">
-        <v>6.31607200431066</v>
+        <v>7.331402261096577</v>
       </c>
       <c r="F5">
-        <v>39.50023220571829</v>
+        <v>23.08357651459553</v>
       </c>
       <c r="G5">
-        <v>2.152353220734718</v>
+        <v>2.113463882441922</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.156334978059035</v>
+        <v>5.822956312538312</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.951871444318776</v>
+        <v>7.21035862461144</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>30.22678397681993</v>
+        <v>17.36424558700579</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.35796846005382</v>
+        <v>20.97274778999966</v>
       </c>
       <c r="C6">
-        <v>10.93215752337374</v>
+        <v>11.77243641841845</v>
       </c>
       <c r="D6">
-        <v>2.139724502694983</v>
+        <v>4.822328984472433</v>
       </c>
       <c r="E6">
-        <v>6.317544027016003</v>
+        <v>7.334312084029783</v>
       </c>
       <c r="F6">
-        <v>39.45750075703884</v>
+        <v>23.08272579438316</v>
       </c>
       <c r="G6">
-        <v>2.152839581103177</v>
+        <v>2.113738091734638</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.158770128965761</v>
+        <v>5.826417848258899</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.945781936118872</v>
+        <v>7.199948017583107</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>30.19769265178224</v>
+        <v>17.369036716894</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79642205446273</v>
+        <v>21.46339722422489</v>
       </c>
       <c r="C7">
-        <v>11.19868056046131</v>
+        <v>11.96562224291661</v>
       </c>
       <c r="D7">
-        <v>2.154219250160403</v>
+        <v>4.852711164948341</v>
       </c>
       <c r="E7">
-        <v>6.307456028594951</v>
+        <v>7.314387615133063</v>
       </c>
       <c r="F7">
-        <v>39.75640965202794</v>
+        <v>23.09093126110568</v>
       </c>
       <c r="G7">
-        <v>2.149479040362099</v>
+        <v>2.111845386724177</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.141984513450692</v>
+        <v>5.802519256224138</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.988295272989207</v>
+        <v>7.272086294061121</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>30.40152143931802</v>
+        <v>17.33749837905235</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.66790942007517</v>
+        <v>23.51301730784263</v>
       </c>
       <c r="C8">
-        <v>12.31501164229786</v>
+        <v>12.78387524532374</v>
       </c>
       <c r="D8">
-        <v>2.218985597038651</v>
+        <v>4.987525337874469</v>
       </c>
       <c r="E8">
-        <v>6.266167118903804</v>
+        <v>7.233317512419086</v>
       </c>
       <c r="F8">
-        <v>41.13252464717333</v>
+        <v>23.18594546067761</v>
       </c>
       <c r="G8">
-        <v>2.135010842685942</v>
+        <v>2.103750203706952</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.070785811000319</v>
+        <v>5.700174033364465</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.181827510315659</v>
+        <v>7.586812548271693</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>31.34852202222755</v>
+        <v>17.24258882572447</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09748783393909</v>
+        <v>27.17130147612033</v>
       </c>
       <c r="C9">
-        <v>14.29563988744667</v>
+        <v>14.25814329921164</v>
       </c>
       <c r="D9">
-        <v>2.350560554506763</v>
+        <v>5.2528853305284</v>
       </c>
       <c r="E9">
-        <v>6.197066015109021</v>
+        <v>7.100001695075793</v>
       </c>
       <c r="F9">
-        <v>44.03735839505353</v>
+        <v>23.60059760965398</v>
       </c>
       <c r="G9">
-        <v>2.107741974836312</v>
+        <v>2.088741744493954</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.941265896412701</v>
+        <v>5.510059974188167</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.581421162008567</v>
+        <v>8.186206419185318</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.38105148723877</v>
+        <v>17.23264199586458</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.49007658742082</v>
+        <v>29.64005082076869</v>
       </c>
       <c r="C10">
-        <v>15.63076149250915</v>
+        <v>15.25738730362718</v>
       </c>
       <c r="D10">
-        <v>2.451858113652612</v>
+        <v>5.447071888518686</v>
       </c>
       <c r="E10">
-        <v>6.153833853386724</v>
+        <v>7.01875723205797</v>
       </c>
       <c r="F10">
-        <v>46.30087666671206</v>
+        <v>24.05859080912281</v>
       </c>
       <c r="G10">
-        <v>2.088170072500053</v>
+        <v>2.078184650987603</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.852046145231364</v>
+        <v>5.376220954165879</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.886460147735118</v>
+        <v>8.612116822657649</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>34.98698236522066</v>
+        <v>17.34837326046393</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.61274601212557</v>
+        <v>30.70486505226951</v>
       </c>
       <c r="C11">
-        <v>16.21389627836963</v>
+        <v>15.69318127071507</v>
       </c>
       <c r="D11">
-        <v>2.499429356499765</v>
+        <v>5.534988187337408</v>
       </c>
       <c r="E11">
-        <v>6.13588482037895</v>
+        <v>6.985679724935785</v>
       </c>
       <c r="F11">
-        <v>47.3603849197514</v>
+        <v>24.30293111993043</v>
       </c>
       <c r="G11">
-        <v>2.07931293861087</v>
+        <v>2.073469974983296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.812698396164214</v>
+        <v>5.316457089591838</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.027656197008969</v>
+        <v>8.802121730647665</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35.74382019624864</v>
+        <v>17.43102825445796</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.03195892042454</v>
+        <v>31.09983021976529</v>
       </c>
       <c r="C12">
-        <v>16.43140487040543</v>
+        <v>15.85547841231505</v>
       </c>
       <c r="D12">
-        <v>2.517704909032028</v>
+        <v>5.568200640204242</v>
       </c>
       <c r="E12">
-        <v>6.129343241123687</v>
+        <v>6.973735589104829</v>
       </c>
       <c r="F12">
-        <v>47.7661036853902</v>
+        <v>24.40082980615266</v>
       </c>
       <c r="G12">
-        <v>2.075960466080948</v>
+        <v>2.071696031212581</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.797972568150896</v>
+        <v>5.293974495646854</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.081476716444735</v>
+        <v>8.873492249373562</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>36.03440016082264</v>
+        <v>17.46690508582766</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.94193260438843</v>
+        <v>31.01513271328515</v>
       </c>
       <c r="C13">
-        <v>16.38470484650083</v>
+        <v>15.82064650793703</v>
       </c>
       <c r="D13">
-        <v>2.513756494624475</v>
+        <v>5.561051561762322</v>
       </c>
       <c r="E13">
-        <v>6.130740583860081</v>
+        <v>6.976281712044867</v>
       </c>
       <c r="F13">
-        <v>47.67852011952207</v>
+        <v>24.37950367946919</v>
       </c>
       <c r="G13">
-        <v>2.076682501614622</v>
+        <v>2.072077595148134</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.801136347822906</v>
+        <v>5.29881011767668</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.06986968286507</v>
+        <v>8.858147723500707</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.97163763313726</v>
+        <v>17.45897070515776</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.64735190331341</v>
+        <v>30.7375238662361</v>
       </c>
       <c r="C14">
-        <v>16.23185616047517</v>
+        <v>15.70658836284603</v>
       </c>
       <c r="D14">
-        <v>2.500927365228884</v>
+        <v>5.537722291298813</v>
       </c>
       <c r="E14">
-        <v>6.135341470866816</v>
+        <v>6.984685276498731</v>
       </c>
       <c r="F14">
-        <v>47.39367179568802</v>
+        <v>24.31087656663216</v>
       </c>
       <c r="G14">
-        <v>2.07903712968402</v>
+        <v>2.073323810400148</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.811483422138004</v>
+        <v>5.314604527042465</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.032076929084001</v>
+        <v>8.808005267769866</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>35.76764521977928</v>
+        <v>17.43388665527686</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.46615031223679</v>
+        <v>30.56640870064621</v>
       </c>
       <c r="C15">
-        <v>16.13780605900862</v>
+        <v>15.63636845542375</v>
       </c>
       <c r="D15">
-        <v>2.493104702199384</v>
+        <v>5.523421552474985</v>
       </c>
       <c r="E15">
-        <v>6.138193169304807</v>
+        <v>6.989909172168124</v>
       </c>
       <c r="F15">
-        <v>47.21978865974862</v>
+        <v>24.26954566553946</v>
       </c>
       <c r="G15">
-        <v>2.080479443592593</v>
+        <v>2.074088600146103</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.817843889625633</v>
+        <v>5.324298040509872</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.008973931054303</v>
+        <v>8.777214889827304</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>35.64321950302961</v>
+        <v>17.41912568399297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.41586472985774</v>
+        <v>29.56930079570287</v>
       </c>
       <c r="C16">
-        <v>15.59217902941693</v>
+        <v>15.22852663669329</v>
       </c>
       <c r="D16">
-        <v>2.448783080712428</v>
+        <v>5.44131621045056</v>
       </c>
       <c r="E16">
-        <v>6.15504210998143</v>
+        <v>7.020998990331567</v>
       </c>
       <c r="F16">
-        <v>46.23225217089967</v>
+        <v>24.04336405738391</v>
       </c>
       <c r="G16">
-        <v>2.088749414831537</v>
+        <v>2.07849443039765</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.854642215235967</v>
+        <v>5.380148162389882</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.877281654588701</v>
+        <v>8.599620470354351</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>34.93806620229039</v>
+        <v>17.34359796955223</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78964167104652</v>
+        <v>28.94277424188563</v>
       </c>
       <c r="C17">
-        <v>15.25136639611654</v>
+        <v>14.97349657085504</v>
       </c>
       <c r="D17">
-        <v>2.422006338466962</v>
+        <v>5.390825310871602</v>
       </c>
       <c r="E17">
-        <v>6.16582382427022</v>
+        <v>7.04108178041001</v>
       </c>
       <c r="F17">
-        <v>45.63419862756522</v>
+        <v>23.91397311484905</v>
       </c>
       <c r="G17">
-        <v>2.093831176452589</v>
+        <v>2.081218910163389</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.877531377600085</v>
+        <v>5.414688733453962</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.797115152369012</v>
+        <v>8.489680994844083</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>34.51233723157349</v>
+        <v>17.30513867961213</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.43687943405998</v>
+        <v>28.57692435275241</v>
       </c>
       <c r="C18">
-        <v>15.05304899236134</v>
+        <v>14.8250444420757</v>
       </c>
       <c r="D18">
-        <v>2.406742172307742</v>
+        <v>5.361745741724992</v>
       </c>
       <c r="E18">
-        <v>6.172186268057405</v>
+        <v>7.052996657295424</v>
       </c>
       <c r="F18">
-        <v>45.29300365185656</v>
+        <v>23.84292839184734</v>
       </c>
       <c r="G18">
-        <v>2.096758764395428</v>
+        <v>2.08279430145525</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.89081345024909</v>
+        <v>5.434661780249141</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.751233803167105</v>
+        <v>8.426096348579891</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>34.26992884334436</v>
+        <v>17.28582716536799</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.3169175868073</v>
+        <v>28.45210775474722</v>
       </c>
       <c r="C19">
-        <v>14.98550378792457</v>
+        <v>14.77447899519922</v>
       </c>
       <c r="D19">
-        <v>2.401596211007889</v>
+        <v>5.351893899967982</v>
       </c>
       <c r="E19">
-        <v>6.174367915314368</v>
+        <v>7.057092623001602</v>
       </c>
       <c r="F19">
-        <v>45.17795468294528</v>
+        <v>23.81944773166642</v>
       </c>
       <c r="G19">
-        <v>2.09775094672172</v>
+        <v>2.083329170511194</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.89533071304654</v>
+        <v>5.441442919715389</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.735738423926669</v>
+        <v>8.404508901756317</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>34.18827075249685</v>
+        <v>17.27976300876098</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85468245210313</v>
+        <v>29.01003626018138</v>
       </c>
       <c r="C20">
-        <v>15.2878824226833</v>
+        <v>15.00082794671059</v>
       </c>
       <c r="D20">
-        <v>2.424842258957482</v>
+        <v>5.396204287779681</v>
       </c>
       <c r="E20">
-        <v>6.164659364116501</v>
+        <v>7.038906117857135</v>
       </c>
       <c r="F20">
-        <v>45.69757241701672</v>
+        <v>23.92739597112002</v>
       </c>
       <c r="G20">
-        <v>2.093289763500825</v>
+        <v>2.080928029784063</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.875082722991094</v>
+        <v>5.411000924221744</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.805625390595685</v>
+        <v>8.50142082833294</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>34.55740096559652</v>
+        <v>17.3089400684506</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.73403576470308</v>
+        <v>30.81928744558321</v>
       </c>
       <c r="C21">
-        <v>16.27683993903601</v>
+        <v>15.74016422983358</v>
       </c>
       <c r="D21">
-        <v>2.504688089236122</v>
+        <v>5.544576963257219</v>
       </c>
       <c r="E21">
-        <v>6.133983075966488</v>
+        <v>6.982200965168577</v>
       </c>
       <c r="F21">
-        <v>47.47721421228308</v>
+        <v>24.33088672446312</v>
       </c>
       <c r="G21">
-        <v>2.078345520891298</v>
+        <v>2.072957467554039</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.808439535676839</v>
+        <v>5.30996139364916</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.04316794091492</v>
+        <v>8.822749365930086</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.82745277336924</v>
+        <v>17.44112817442146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.94351465796158</v>
+        <v>31.95366841506157</v>
       </c>
       <c r="C22">
-        <v>16.90397226486714</v>
+        <v>16.20745426443744</v>
       </c>
       <c r="D22">
-        <v>2.558422390810272</v>
+        <v>5.641076250672965</v>
       </c>
       <c r="E22">
-        <v>6.11542750114684</v>
+        <v>6.948543093584295</v>
       </c>
       <c r="F22">
-        <v>48.66674176797331</v>
+        <v>24.62598565609804</v>
       </c>
       <c r="G22">
-        <v>2.068584640059</v>
+        <v>2.067814064738434</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.765898553021744</v>
+        <v>5.24478652950812</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.200478963922809</v>
+        <v>9.029360025828032</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.68085291153076</v>
+        <v>17.55431603393225</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.30103951740989</v>
+        <v>31.35258627704034</v>
       </c>
       <c r="C23">
-        <v>16.57095522405548</v>
+        <v>15.95951494162187</v>
       </c>
       <c r="D23">
-        <v>2.529584110388803</v>
+        <v>5.589621559882819</v>
       </c>
       <c r="E23">
-        <v>6.12519121295804</v>
+        <v>6.966187385388505</v>
       </c>
       <c r="F23">
-        <v>48.02935576897729</v>
+        <v>24.4655523463067</v>
       </c>
       <c r="G23">
-        <v>2.073795524890205</v>
+        <v>2.070553602457669</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.788511958496886</v>
+        <v>5.27949716950796</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.116327067958421</v>
+        <v>8.919410676152848</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.22315842012983</v>
+        <v>17.49136920088693</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82528744130494</v>
+        <v>28.97964471342287</v>
       </c>
       <c r="C24">
-        <v>15.27138095185008</v>
+        <v>14.98847713537569</v>
       </c>
       <c r="D24">
-        <v>2.423559737402833</v>
+        <v>5.393772611806618</v>
       </c>
       <c r="E24">
-        <v>6.165185306674556</v>
+        <v>7.039888587260251</v>
       </c>
       <c r="F24">
-        <v>45.66891293786169</v>
+        <v>23.92131709746412</v>
       </c>
       <c r="G24">
-        <v>2.093534517182051</v>
+        <v>2.081059508518139</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.876189376995644</v>
+        <v>5.412667822987062</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.801777265857226</v>
+        <v>8.496114426780474</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.53702034964093</v>
+        <v>17.30721276148821</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.19611522429228</v>
+        <v>26.20977599127707</v>
       </c>
       <c r="C25">
-        <v>13.78146974209788</v>
+        <v>13.87380030064919</v>
       </c>
       <c r="D25">
-        <v>2.314300245123272</v>
+        <v>5.181140666632674</v>
       </c>
       <c r="E25">
-        <v>6.214460798353989</v>
+        <v>7.133215473103293</v>
       </c>
       <c r="F25">
-        <v>43.22919750754372</v>
+        <v>23.46245647799261</v>
       </c>
       <c r="G25">
-        <v>2.115021120593627</v>
+        <v>2.092715001113758</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.975245435599843</v>
+        <v>5.560419112248342</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.471267091192741</v>
+        <v>8.026361311577981</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>32.81190563864945</v>
+        <v>17.21485132618298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04018411918775</v>
+        <v>24.18329985387897</v>
       </c>
       <c r="C2">
-        <v>12.99697276967033</v>
+        <v>13.63720625104994</v>
       </c>
       <c r="D2">
-        <v>5.024174773331385</v>
+        <v>6.156035116325399</v>
       </c>
       <c r="E2">
-        <v>7.21305180056217</v>
+        <v>8.14197193535863</v>
       </c>
       <c r="F2">
-        <v>23.22658012854972</v>
+        <v>18.92999938986616</v>
       </c>
       <c r="G2">
-        <v>2.10161746922519</v>
+        <v>19.9869292110112</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.802727994969108</v>
       </c>
       <c r="J2">
-        <v>5.673181547621044</v>
+        <v>8.466872134916599</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.71097320225299</v>
       </c>
       <c r="L2">
-        <v>7.671035931033495</v>
+        <v>5.98450991216896</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>8.349219038452537</v>
       </c>
       <c r="O2">
-        <v>17.22821207537595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>13.48965863283888</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.47967116534899</v>
+        <v>22.58883914429644</v>
       </c>
       <c r="C3">
-        <v>12.36918898951436</v>
+        <v>12.98308809724459</v>
       </c>
       <c r="D3">
-        <v>4.917996720326143</v>
+        <v>6.006124841450625</v>
       </c>
       <c r="E3">
-        <v>7.273746580645807</v>
+        <v>8.085358645954303</v>
       </c>
       <c r="F3">
-        <v>23.12565675814723</v>
+        <v>18.83593896100283</v>
       </c>
       <c r="G3">
-        <v>2.107870118034271</v>
+        <v>19.81888880947521</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.018905424265403</v>
       </c>
       <c r="J3">
-        <v>5.752285013972995</v>
+        <v>8.542317837304356</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.01613888131293</v>
       </c>
       <c r="L3">
-        <v>7.42552388991779</v>
+        <v>5.973200281572404</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.032032444437434</v>
       </c>
       <c r="O3">
-        <v>17.28284941248807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>13.55228955443866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.46907537346724</v>
+        <v>21.54980899558905</v>
       </c>
       <c r="C4">
-        <v>11.96786445207257</v>
+        <v>12.56385318031266</v>
       </c>
       <c r="D4">
-        <v>4.853067163613556</v>
+        <v>5.91290730943614</v>
       </c>
       <c r="E4">
-        <v>7.31415817870737</v>
+        <v>8.050445293397663</v>
       </c>
       <c r="F4">
-        <v>23.09105860014314</v>
+        <v>18.79288995676538</v>
       </c>
       <c r="G4">
-        <v>2.111823382919739</v>
+        <v>19.73994111189361</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.156193077775851</v>
       </c>
       <c r="J4">
-        <v>5.802241345115974</v>
+        <v>8.593566888385915</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.21131890101744</v>
       </c>
       <c r="L4">
-        <v>7.27292868078009</v>
+        <v>5.965899480730641</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.830671812189081</v>
       </c>
       <c r="O4">
-        <v>17.33715275836503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>13.60224993040604</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.04410568596876</v>
+        <v>21.11124435361044</v>
       </c>
       <c r="C5">
-        <v>11.8004622250143</v>
+        <v>12.38873472314614</v>
       </c>
       <c r="D5">
-        <v>4.826700716453339</v>
+        <v>5.874666583957101</v>
       </c>
       <c r="E5">
-        <v>7.331402261096577</v>
+        <v>8.036177230645087</v>
       </c>
       <c r="F5">
-        <v>23.08357651459553</v>
+        <v>18.77894759139801</v>
       </c>
       <c r="G5">
-        <v>2.113463882441922</v>
+        <v>19.71367812753861</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.213301257040672</v>
       </c>
       <c r="J5">
-        <v>5.822956312538312</v>
+        <v>8.61565017094833</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.29278547014244</v>
       </c>
       <c r="L5">
-        <v>7.21035862461144</v>
+        <v>5.962832899861501</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.747035937622669</v>
       </c>
       <c r="O5">
-        <v>17.36424558700579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>13.62538528788753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97274778999966</v>
+        <v>21.0375043012442</v>
       </c>
       <c r="C6">
-        <v>11.77243641841845</v>
+        <v>12.35940303785584</v>
       </c>
       <c r="D6">
-        <v>4.822328984472433</v>
+        <v>5.868302646297334</v>
       </c>
       <c r="E6">
-        <v>7.334312084029783</v>
+        <v>8.033805514632913</v>
       </c>
       <c r="F6">
-        <v>23.08272579438316</v>
+        <v>18.77684695634609</v>
       </c>
       <c r="G6">
-        <v>2.113738091734638</v>
+        <v>19.70966826653806</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.222854723224932</v>
       </c>
       <c r="J6">
-        <v>5.826417848258899</v>
+        <v>8.619388372417079</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.30642855011948</v>
       </c>
       <c r="L6">
-        <v>7.199948017583107</v>
+        <v>5.962318122914584</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.733055434520182</v>
       </c>
       <c r="O6">
-        <v>17.369036716894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>13.62939118010234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.46339722422489</v>
+        <v>21.54395578128517</v>
       </c>
       <c r="C7">
-        <v>11.96562224291661</v>
+        <v>12.56150857056742</v>
       </c>
       <c r="D7">
-        <v>4.852711164948341</v>
+        <v>5.912392553788166</v>
       </c>
       <c r="E7">
-        <v>7.314387615133063</v>
+        <v>8.050253036543833</v>
       </c>
       <c r="F7">
-        <v>23.09093126110568</v>
+        <v>18.79268748044814</v>
       </c>
       <c r="G7">
-        <v>2.111845386724177</v>
+        <v>19.73956325415031</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.156958529917854</v>
       </c>
       <c r="J7">
-        <v>5.802519256224138</v>
+        <v>8.593859907902161</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.21240981780689</v>
       </c>
       <c r="L7">
-        <v>7.272086294061121</v>
+        <v>5.965858496299426</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.829550150734882</v>
       </c>
       <c r="O7">
-        <v>17.33749837905235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>13.60255085482941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51301730784263</v>
+        <v>23.64595211413441</v>
       </c>
       <c r="C8">
-        <v>12.78387524532374</v>
+        <v>13.41540170628913</v>
       </c>
       <c r="D8">
-        <v>4.987525337874469</v>
+        <v>6.104613154818858</v>
       </c>
       <c r="E8">
-        <v>7.233317512419086</v>
+        <v>8.122481959100206</v>
       </c>
       <c r="F8">
-        <v>23.18594546067761</v>
+        <v>18.8944592473061</v>
       </c>
       <c r="G8">
-        <v>2.103750203706952</v>
+        <v>19.92385624398376</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.876331408898392</v>
       </c>
       <c r="J8">
-        <v>5.700174033364465</v>
+        <v>8.49183920325285</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.81455184276567</v>
       </c>
       <c r="L8">
-        <v>7.586812548271693</v>
+        <v>5.980683290655186</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>8.241270109290973</v>
       </c>
       <c r="O8">
-        <v>17.24258882572447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>13.50879523626915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.17130147612033</v>
+        <v>27.29446184393933</v>
       </c>
       <c r="C9">
-        <v>14.25814329921164</v>
+        <v>14.94490342773681</v>
       </c>
       <c r="D9">
-        <v>5.2528853305284</v>
+        <v>6.470580841383144</v>
       </c>
       <c r="E9">
-        <v>7.100001695075793</v>
+        <v>8.263023134125914</v>
       </c>
       <c r="F9">
-        <v>23.60059760965398</v>
+        <v>19.2146648248817</v>
       </c>
       <c r="G9">
-        <v>2.088741744493954</v>
+        <v>20.48451535475034</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.754979943781804</v>
       </c>
       <c r="J9">
-        <v>5.510059974188167</v>
+        <v>8.332729739603993</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.09812906372447</v>
       </c>
       <c r="L9">
-        <v>8.186206419185318</v>
+        <v>6.007007609070527</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.993158947830102</v>
       </c>
       <c r="O9">
-        <v>17.23264199586458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.42150788532735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.64005082076869</v>
+        <v>29.68837050517686</v>
       </c>
       <c r="C10">
-        <v>15.25738730362718</v>
+        <v>16.03046679203141</v>
       </c>
       <c r="D10">
-        <v>5.447071888518686</v>
+        <v>6.695206858419079</v>
       </c>
       <c r="E10">
-        <v>7.01875723205797</v>
+        <v>8.30885635299369</v>
       </c>
       <c r="F10">
-        <v>24.05859080912281</v>
+        <v>19.4016345062847</v>
       </c>
       <c r="G10">
-        <v>2.078184650987603</v>
+        <v>20.84947154173873</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.098124783089179</v>
       </c>
       <c r="J10">
-        <v>5.376220954165879</v>
+        <v>8.21514378420124</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.56816521467864</v>
       </c>
       <c r="L10">
-        <v>8.612116822657649</v>
+        <v>6.019034364036949</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>9.431657115318478</v>
       </c>
       <c r="O10">
-        <v>17.34837326046393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.35038656514574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.70486505226951</v>
+        <v>30.70038981869935</v>
       </c>
       <c r="C11">
-        <v>15.69318127071507</v>
+        <v>16.98737751581355</v>
       </c>
       <c r="D11">
-        <v>5.534988187337408</v>
+        <v>6.490034125024015</v>
       </c>
       <c r="E11">
-        <v>6.985679724935785</v>
+        <v>7.913363819772541</v>
       </c>
       <c r="F11">
-        <v>24.30293111993043</v>
+        <v>18.4056847173608</v>
       </c>
       <c r="G11">
-        <v>2.073469974983296</v>
+        <v>19.51546747008218</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>2.977400176421683</v>
       </c>
       <c r="J11">
-        <v>5.316457089591838</v>
+        <v>7.921538956947348</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.96277625609186</v>
       </c>
       <c r="L11">
-        <v>8.802121730647665</v>
+        <v>6.025149729435132</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.968543098593006</v>
       </c>
       <c r="O11">
-        <v>17.43102825445796</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>12.69796457503113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.09983021976529</v>
+        <v>31.06913470479232</v>
       </c>
       <c r="C12">
-        <v>15.85547841231505</v>
+        <v>17.58380513218709</v>
       </c>
       <c r="D12">
-        <v>5.568200640204242</v>
+        <v>6.268857815449073</v>
       </c>
       <c r="E12">
-        <v>6.973735589104829</v>
+        <v>7.682194386954261</v>
       </c>
       <c r="F12">
-        <v>24.40082980615266</v>
+        <v>17.50947832191418</v>
       </c>
       <c r="G12">
-        <v>2.071696031212581</v>
+        <v>18.28031885115583</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.225521955270607</v>
       </c>
       <c r="J12">
-        <v>5.293974495646854</v>
+        <v>7.695848117996213</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.59608173015013</v>
       </c>
       <c r="L12">
-        <v>8.873492249373562</v>
+        <v>6.095414651031787</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>8.488395297246912</v>
       </c>
       <c r="O12">
-        <v>17.46690508582766</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.15275992847763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.01513271328515</v>
+        <v>30.97802645979383</v>
       </c>
       <c r="C13">
-        <v>15.82064650793703</v>
+        <v>17.95291213660949</v>
       </c>
       <c r="D13">
-        <v>5.561051561762322</v>
+        <v>6.019506453691335</v>
       </c>
       <c r="E13">
-        <v>6.976281712044867</v>
+        <v>7.570795070984948</v>
       </c>
       <c r="F13">
-        <v>24.37950367946919</v>
+        <v>16.63128285202721</v>
       </c>
       <c r="G13">
-        <v>2.072077595148134</v>
+        <v>17.02859115222605</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.539147507598464</v>
       </c>
       <c r="J13">
-        <v>5.29881011767668</v>
+        <v>7.509884943055662</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.39918441246196</v>
       </c>
       <c r="L13">
-        <v>8.858147723500707</v>
+        <v>6.213623123504516</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.958632961658354</v>
       </c>
       <c r="O13">
-        <v>17.45897070515776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11.65747995424442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.7375238662361</v>
+        <v>30.70503616953574</v>
       </c>
       <c r="C14">
-        <v>15.70658836284603</v>
+        <v>18.11316074471796</v>
       </c>
       <c r="D14">
-        <v>5.537722291298813</v>
+        <v>5.831928811226269</v>
       </c>
       <c r="E14">
-        <v>6.984685276498731</v>
+        <v>7.565369835031285</v>
       </c>
       <c r="F14">
-        <v>24.31087656663216</v>
+        <v>16.02956024079806</v>
       </c>
       <c r="G14">
-        <v>2.073323810400148</v>
+        <v>16.14632371269082</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.481961594474532</v>
       </c>
       <c r="J14">
-        <v>5.314604527042465</v>
+        <v>7.399899427778163</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>10.34784255049139</v>
       </c>
       <c r="L14">
-        <v>8.808005267769866</v>
+        <v>6.3231481320009</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.564235212373399</v>
       </c>
       <c r="O14">
-        <v>17.43388665527686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.33838092105048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.56640870064621</v>
+        <v>30.53895684542433</v>
       </c>
       <c r="C15">
-        <v>15.63636845542375</v>
+        <v>18.10289081880226</v>
       </c>
       <c r="D15">
-        <v>5.523421552474985</v>
+        <v>5.780310573870401</v>
       </c>
       <c r="E15">
-        <v>6.989909172168124</v>
+        <v>7.573452806843965</v>
       </c>
       <c r="F15">
-        <v>24.26954566553946</v>
+        <v>15.89041485202464</v>
       </c>
       <c r="G15">
-        <v>2.074088600146103</v>
+        <v>15.93339498662932</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.696156824157957</v>
       </c>
       <c r="J15">
-        <v>5.324298040509872</v>
+        <v>7.382371649239909</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>10.3672792830048</v>
       </c>
       <c r="L15">
-        <v>8.777214889827304</v>
+        <v>6.35058417182019</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.456797911065842</v>
       </c>
       <c r="O15">
-        <v>17.41912568399297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.27375604179547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.56930079570287</v>
+        <v>29.5775249908952</v>
       </c>
       <c r="C16">
-        <v>15.22852663669329</v>
+        <v>17.60482650315022</v>
       </c>
       <c r="D16">
-        <v>5.44131621045056</v>
+        <v>5.729340597127167</v>
       </c>
       <c r="E16">
-        <v>7.020998990331567</v>
+        <v>7.571167828908715</v>
       </c>
       <c r="F16">
-        <v>24.04336405738391</v>
+        <v>15.97925202986261</v>
       </c>
       <c r="G16">
-        <v>2.07849443039765</v>
+        <v>15.99474846583019</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.439324816475398</v>
       </c>
       <c r="J16">
-        <v>5.380148162389882</v>
+        <v>7.472194837412551</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.64061838277911</v>
       </c>
       <c r="L16">
-        <v>8.599620470354351</v>
+        <v>6.314014898169469</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>7.357359669165881</v>
       </c>
       <c r="O16">
-        <v>17.34359796955223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.40527303651211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.94277424188563</v>
+        <v>28.9752838901541</v>
       </c>
       <c r="C17">
-        <v>14.97349657085504</v>
+        <v>17.12553826689505</v>
       </c>
       <c r="D17">
-        <v>5.390825310871602</v>
+        <v>5.79120725765704</v>
       </c>
       <c r="E17">
-        <v>7.04108178041001</v>
+        <v>7.561968527689193</v>
       </c>
       <c r="F17">
-        <v>23.91397311484905</v>
+        <v>16.36795670401905</v>
       </c>
       <c r="G17">
-        <v>2.081218910163389</v>
+        <v>16.51870733598543</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.690006557960956</v>
       </c>
       <c r="J17">
-        <v>5.414688733453962</v>
+        <v>7.59874624760075</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.87292137540491</v>
       </c>
       <c r="L17">
-        <v>8.489680994844083</v>
+        <v>6.223741584592443</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>7.494327570030566</v>
       </c>
       <c r="O17">
-        <v>17.30513867961213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.67436294843501</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.57692435275241</v>
+        <v>28.62836195312163</v>
       </c>
       <c r="C18">
-        <v>14.8250444420757</v>
+        <v>16.6166477952285</v>
       </c>
       <c r="D18">
-        <v>5.361745741724992</v>
+        <v>5.958774821182257</v>
       </c>
       <c r="E18">
-        <v>7.052996657295424</v>
+        <v>7.609214405814497</v>
       </c>
       <c r="F18">
-        <v>23.84292839184734</v>
+        <v>17.05657679568405</v>
       </c>
       <c r="G18">
-        <v>2.08279430145525</v>
+        <v>17.48830609519286</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.435884284737049</v>
       </c>
       <c r="J18">
-        <v>5.434661780249141</v>
+        <v>7.771365966597796</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.117346850181</v>
       </c>
       <c r="L18">
-        <v>8.426096348579891</v>
+        <v>6.106203652673113</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.857920206186465</v>
       </c>
       <c r="O18">
-        <v>17.28582716536799</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.09122421989477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.45210775474722</v>
+        <v>28.51833620406821</v>
       </c>
       <c r="C19">
-        <v>14.77447899519922</v>
+        <v>16.13262854854948</v>
       </c>
       <c r="D19">
-        <v>5.351893899967982</v>
+        <v>6.200597194713308</v>
       </c>
       <c r="E19">
-        <v>7.057092623001602</v>
+        <v>7.789276589635771</v>
       </c>
       <c r="F19">
-        <v>23.81944773166642</v>
+        <v>17.94209671969064</v>
       </c>
       <c r="G19">
-        <v>2.083329170511194</v>
+        <v>18.74331394658047</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.044185468688593</v>
       </c>
       <c r="J19">
-        <v>5.441442919715389</v>
+        <v>7.971382822210405</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.38515713559501</v>
       </c>
       <c r="L19">
-        <v>8.404508901756317</v>
+        <v>6.019969080188589</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.382760128022806</v>
       </c>
       <c r="O19">
-        <v>17.27976300876098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.60233806036493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.01003626018138</v>
+        <v>29.07868227903958</v>
       </c>
       <c r="C20">
-        <v>15.00082794671059</v>
+        <v>15.75485326929495</v>
       </c>
       <c r="D20">
-        <v>5.396204287779681</v>
+        <v>6.63520321200327</v>
       </c>
       <c r="E20">
-        <v>7.038906117857135</v>
+        <v>8.294213262880715</v>
       </c>
       <c r="F20">
-        <v>23.92739597112002</v>
+        <v>19.34143604334212</v>
       </c>
       <c r="G20">
-        <v>2.080928029784063</v>
+        <v>20.73649114658051</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.007535753518926</v>
       </c>
       <c r="J20">
-        <v>5.411000924221744</v>
+        <v>8.242860554720664</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.70258224879892</v>
       </c>
       <c r="L20">
-        <v>8.50142082833294</v>
+        <v>6.015572842771243</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>9.315265017472262</v>
       </c>
       <c r="O20">
-        <v>17.3089400684506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.36117937039375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.81928744558321</v>
+        <v>30.8298729410481</v>
       </c>
       <c r="C21">
-        <v>15.74016422983358</v>
+        <v>16.47010205193308</v>
       </c>
       <c r="D21">
-        <v>5.544576963257219</v>
+        <v>6.859360556134969</v>
       </c>
       <c r="E21">
-        <v>6.982200965168577</v>
+        <v>8.4175610602307</v>
       </c>
       <c r="F21">
-        <v>24.33088672446312</v>
+        <v>19.7070110181183</v>
       </c>
       <c r="G21">
-        <v>2.072957467554039</v>
+        <v>21.33215041199574</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.276060207608722</v>
       </c>
       <c r="J21">
-        <v>5.30996139364916</v>
+        <v>8.206131025139404</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>11.38074181078553</v>
       </c>
       <c r="L21">
-        <v>8.822749365930086</v>
+        <v>6.033415305842595</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.758358193126631</v>
       </c>
       <c r="O21">
-        <v>17.44112817442146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.44273143546035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.95366841506157</v>
+        <v>31.92278212696352</v>
       </c>
       <c r="C22">
-        <v>16.20745426443744</v>
+        <v>16.94826298934921</v>
       </c>
       <c r="D22">
-        <v>5.641076250672965</v>
+        <v>6.985548053409259</v>
       </c>
       <c r="E22">
-        <v>6.948543093584295</v>
+        <v>8.468986358495036</v>
       </c>
       <c r="F22">
-        <v>24.62598565609804</v>
+        <v>19.896553099321</v>
       </c>
       <c r="G22">
-        <v>2.067814064738434</v>
+        <v>21.65600775479611</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.444151091937907</v>
       </c>
       <c r="J22">
-        <v>5.24478652950812</v>
+        <v>8.173627016661369</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>11.15628434420672</v>
       </c>
       <c r="L22">
-        <v>9.029360025828032</v>
+        <v>6.041794081855889</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.00097724770222</v>
       </c>
       <c r="O22">
-        <v>17.55431603393225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.47290575818015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.35258627704034</v>
+        <v>31.34407900943535</v>
       </c>
       <c r="C23">
-        <v>15.95951494162187</v>
+        <v>16.69472563112962</v>
       </c>
       <c r="D23">
-        <v>5.589621559882819</v>
+        <v>6.918398878779088</v>
       </c>
       <c r="E23">
-        <v>6.966187385388505</v>
+        <v>8.441541470855993</v>
       </c>
       <c r="F23">
-        <v>24.4655523463067</v>
+        <v>19.79396969452921</v>
       </c>
       <c r="G23">
-        <v>2.070553602457669</v>
+        <v>21.48087268719579</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.354726850390985</v>
       </c>
       <c r="J23">
-        <v>5.27949716950796</v>
+        <v>8.190413057663013</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>11.2752262622305</v>
       </c>
       <c r="L23">
-        <v>8.919410676152848</v>
+        <v>6.037343657410557</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.872181559908768</v>
       </c>
       <c r="O23">
-        <v>17.49136920088693</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.45546795282623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97964471342287</v>
+        <v>29.05080590316241</v>
       </c>
       <c r="C24">
-        <v>14.98847713537569</v>
+        <v>15.69812585280893</v>
       </c>
       <c r="D24">
-        <v>5.393772611806618</v>
+        <v>6.659851313334072</v>
       </c>
       <c r="E24">
-        <v>7.039888587260251</v>
+        <v>8.337538659775069</v>
       </c>
       <c r="F24">
-        <v>23.92131709746412</v>
+        <v>19.43637644842653</v>
       </c>
       <c r="G24">
-        <v>2.081059508518139</v>
+        <v>20.86756089553029</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.009564948261104</v>
       </c>
       <c r="J24">
-        <v>5.412667822987062</v>
+        <v>8.26599618448541</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.74387837558456</v>
       </c>
       <c r="L24">
-        <v>8.496114426780474</v>
+        <v>6.020001830788038</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>9.36931532394525</v>
       </c>
       <c r="O24">
-        <v>17.30721276148821</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.41800086491083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.20977599127707</v>
+        <v>26.35772740773038</v>
       </c>
       <c r="C25">
-        <v>13.87380030064919</v>
+        <v>14.54730305445277</v>
       </c>
       <c r="D25">
-        <v>5.181140666632674</v>
+        <v>6.372975054386309</v>
       </c>
       <c r="E25">
-        <v>7.133215473103293</v>
+        <v>8.225103598352895</v>
       </c>
       <c r="F25">
-        <v>23.46245647799261</v>
+        <v>19.11459511744808</v>
       </c>
       <c r="G25">
-        <v>2.092715001113758</v>
+        <v>20.31061158690252</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.622596264753205</v>
       </c>
       <c r="J25">
-        <v>5.560419112248342</v>
+        <v>8.371115955989298</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.28482886057084</v>
       </c>
       <c r="L25">
-        <v>8.026361311577981</v>
+        <v>6.000168248653435</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.796083688605764</v>
       </c>
       <c r="O25">
-        <v>17.21485132618298</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.43403441472007</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.18329985387897</v>
+        <v>24.21335165641553</v>
       </c>
       <c r="C2">
-        <v>13.63720625104994</v>
+        <v>13.69654186353401</v>
       </c>
       <c r="D2">
-        <v>6.156035116325399</v>
+        <v>6.161528541293025</v>
       </c>
       <c r="E2">
-        <v>8.14197193535863</v>
+        <v>8.076421673446507</v>
       </c>
       <c r="F2">
-        <v>18.92999938986616</v>
+        <v>18.67311722422283</v>
       </c>
       <c r="G2">
-        <v>19.9869292110112</v>
+        <v>18.89625655834632</v>
       </c>
       <c r="H2">
-        <v>1.802727994969108</v>
+        <v>1.753086132033247</v>
       </c>
       <c r="J2">
-        <v>8.466872134916599</v>
+        <v>8.865181926955721</v>
       </c>
       <c r="K2">
-        <v>12.71097320225299</v>
+        <v>12.43619863400575</v>
       </c>
       <c r="L2">
-        <v>5.98450991216896</v>
+        <v>10.83859481028019</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.520148287042036</v>
       </c>
       <c r="N2">
-        <v>8.349219038452537</v>
+        <v>5.944418456482188</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.45599858731984</v>
       </c>
       <c r="Q2">
-        <v>13.48965863283888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.29750128880225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58883914429644</v>
+        <v>22.62653734671313</v>
       </c>
       <c r="C3">
-        <v>12.98308809724459</v>
+        <v>12.94686755779713</v>
       </c>
       <c r="D3">
-        <v>6.006124841450625</v>
+        <v>6.014417867869247</v>
       </c>
       <c r="E3">
-        <v>8.085358645954303</v>
+        <v>8.028543201171141</v>
       </c>
       <c r="F3">
-        <v>18.83593896100283</v>
+        <v>18.59848860548154</v>
       </c>
       <c r="G3">
-        <v>19.81888880947521</v>
+        <v>18.78416513867703</v>
       </c>
       <c r="H3">
-        <v>2.018905424265403</v>
+        <v>1.953447222306544</v>
       </c>
       <c r="J3">
-        <v>8.542317837304356</v>
+        <v>8.905576464163135</v>
       </c>
       <c r="K3">
-        <v>13.01613888131293</v>
+        <v>12.72926791883699</v>
       </c>
       <c r="L3">
-        <v>5.973200281572404</v>
+        <v>11.06405645727366</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.773753356117321</v>
       </c>
       <c r="N3">
-        <v>8.032032444437434</v>
+        <v>5.933048216442921</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>8.137275900102889</v>
       </c>
       <c r="Q3">
-        <v>13.55228955443866</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.36809681449861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.54980899558905</v>
+        <v>21.59240481136402</v>
       </c>
       <c r="C4">
-        <v>12.56385318031266</v>
+        <v>12.46524692162508</v>
       </c>
       <c r="D4">
-        <v>5.91290730943614</v>
+        <v>5.923159536914656</v>
       </c>
       <c r="E4">
-        <v>8.050445293397663</v>
+        <v>7.999026938005321</v>
       </c>
       <c r="F4">
-        <v>18.79288995676538</v>
+        <v>18.56516378408711</v>
       </c>
       <c r="G4">
-        <v>19.73994111189361</v>
+        <v>18.74035426204192</v>
       </c>
       <c r="H4">
-        <v>2.156193077775851</v>
+        <v>2.080741783028951</v>
       </c>
       <c r="J4">
-        <v>8.593566888385915</v>
+        <v>8.933124040758718</v>
       </c>
       <c r="K4">
-        <v>13.21131890101744</v>
+        <v>12.9156414367335</v>
       </c>
       <c r="L4">
-        <v>5.965899480730641</v>
+        <v>11.21014905281351</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.949134997294363</v>
       </c>
       <c r="N4">
-        <v>7.830671812189081</v>
+        <v>5.925734433836656</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.935401262119181</v>
       </c>
       <c r="Q4">
-        <v>13.60224993040604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.42110052309031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.11124435361044</v>
+        <v>21.15590005882505</v>
       </c>
       <c r="C5">
-        <v>12.38873472314614</v>
+        <v>12.26380151003618</v>
       </c>
       <c r="D5">
-        <v>5.874666583957101</v>
+        <v>5.885779400219669</v>
       </c>
       <c r="E5">
-        <v>8.036177230645087</v>
+        <v>7.986966290032179</v>
       </c>
       <c r="F5">
-        <v>18.77894759139801</v>
+        <v>18.55463503465795</v>
       </c>
       <c r="G5">
-        <v>19.71367812753861</v>
+        <v>18.72854210898477</v>
       </c>
       <c r="H5">
-        <v>2.213301257040672</v>
+        <v>2.133704432592115</v>
       </c>
       <c r="J5">
-        <v>8.61565017094833</v>
+        <v>8.945023641840312</v>
       </c>
       <c r="K5">
-        <v>13.29278547014244</v>
+        <v>12.99319397656212</v>
       </c>
       <c r="L5">
-        <v>5.962832899861501</v>
+        <v>11.27161838375742</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.025291037383345</v>
       </c>
       <c r="N5">
-        <v>7.747035937622669</v>
+        <v>5.922668790148909</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.851675460740815</v>
       </c>
       <c r="Q5">
-        <v>13.62538528788753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.44502899630692</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0375043012442</v>
+        <v>21.08250634515576</v>
       </c>
       <c r="C6">
-        <v>12.35940303785584</v>
+        <v>12.23004470724788</v>
       </c>
       <c r="D6">
-        <v>5.868302646297334</v>
+        <v>5.879562168559124</v>
       </c>
       <c r="E6">
-        <v>8.033805514632913</v>
+        <v>7.984961586614955</v>
       </c>
       <c r="F6">
-        <v>18.77684695634609</v>
+        <v>18.55306828518986</v>
       </c>
       <c r="G6">
-        <v>19.70966826653806</v>
+        <v>18.72693792906583</v>
       </c>
       <c r="H6">
-        <v>2.222854723224932</v>
+        <v>2.142565043567423</v>
       </c>
       <c r="J6">
-        <v>8.619388372417079</v>
+        <v>8.947039781176507</v>
       </c>
       <c r="K6">
-        <v>13.30642855011948</v>
+        <v>13.00616807002824</v>
       </c>
       <c r="L6">
-        <v>5.962318122914584</v>
+        <v>11.28194250615027</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.038212609910905</v>
       </c>
       <c r="N6">
-        <v>7.733055434520182</v>
+        <v>5.922154548857572</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.837687599270822</v>
       </c>
       <c r="Q6">
-        <v>13.62939118010234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.44914010354664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.54395578128517</v>
+        <v>21.5863705503281</v>
       </c>
       <c r="C7">
-        <v>12.56150857056742</v>
+        <v>12.45728255952044</v>
       </c>
       <c r="D7">
-        <v>5.912392553788166</v>
+        <v>5.925343026669639</v>
       </c>
       <c r="E7">
-        <v>8.050253036543833</v>
+        <v>7.999136886421265</v>
       </c>
       <c r="F7">
-        <v>18.79268748044814</v>
+        <v>18.55300304379076</v>
       </c>
       <c r="G7">
-        <v>19.73956325415031</v>
+        <v>18.81801304075882</v>
       </c>
       <c r="H7">
-        <v>2.156958529917854</v>
+        <v>2.082014320500039</v>
       </c>
       <c r="J7">
-        <v>8.593859907902161</v>
+        <v>8.900918929180705</v>
       </c>
       <c r="K7">
-        <v>13.21240981780689</v>
+        <v>12.91269949010355</v>
       </c>
       <c r="L7">
-        <v>5.965858496299426</v>
+        <v>11.20659726743123</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.948670998246776</v>
       </c>
       <c r="N7">
-        <v>7.829550150734882</v>
+        <v>5.925393819159761</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.934055863283312</v>
       </c>
       <c r="Q7">
-        <v>13.60255085482941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.41230101929572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.64595211413441</v>
+        <v>23.67796651984972</v>
       </c>
       <c r="C8">
-        <v>13.41540170628913</v>
+        <v>13.42614919093927</v>
       </c>
       <c r="D8">
-        <v>6.104613154818858</v>
+        <v>6.119764220808474</v>
       </c>
       <c r="E8">
-        <v>8.122481959100206</v>
+        <v>8.060938588598955</v>
       </c>
       <c r="F8">
-        <v>18.8944592473061</v>
+        <v>18.60529990970051</v>
       </c>
       <c r="G8">
-        <v>19.92385624398376</v>
+        <v>19.10989904887608</v>
       </c>
       <c r="H8">
-        <v>1.876331408898392</v>
+        <v>1.823021518202397</v>
       </c>
       <c r="J8">
-        <v>8.49183920325285</v>
+        <v>8.772809936729148</v>
       </c>
       <c r="K8">
-        <v>12.81455184276567</v>
+        <v>12.52288061652439</v>
       </c>
       <c r="L8">
-        <v>5.980683290655186</v>
+        <v>10.90214437583274</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.596304406275618</v>
       </c>
       <c r="N8">
-        <v>8.241270109290973</v>
+        <v>5.939650110130993</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.346734299143135</v>
       </c>
       <c r="Q8">
-        <v>13.50879523626915</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.2895857012387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.29446184393933</v>
+        <v>27.30794215430221</v>
       </c>
       <c r="C9">
-        <v>14.94490342773681</v>
+        <v>15.17018519711157</v>
       </c>
       <c r="D9">
-        <v>6.470580841383144</v>
+        <v>6.481911513248556</v>
       </c>
       <c r="E9">
-        <v>8.263023134125914</v>
+        <v>8.180303383722404</v>
       </c>
       <c r="F9">
-        <v>19.2146648248817</v>
+        <v>18.85489853851121</v>
       </c>
       <c r="G9">
-        <v>20.48451535475034</v>
+        <v>19.600870500474</v>
       </c>
       <c r="H9">
-        <v>1.754979943781804</v>
+        <v>1.769661176560549</v>
       </c>
       <c r="J9">
-        <v>8.332729739603993</v>
+        <v>8.658583068711598</v>
       </c>
       <c r="K9">
-        <v>12.09812906372447</v>
+        <v>11.82443119918633</v>
       </c>
       <c r="L9">
-        <v>6.007007609070527</v>
+        <v>10.38162552502644</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.078714783790985</v>
       </c>
       <c r="N9">
-        <v>8.993158947830102</v>
+        <v>5.966134215948806</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>9.104249713341126</v>
       </c>
       <c r="Q9">
-        <v>13.42150788532735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.16330583334624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.68837050517686</v>
+        <v>29.6876051987093</v>
       </c>
       <c r="C10">
-        <v>16.03046679203141</v>
+        <v>16.35932734381507</v>
       </c>
       <c r="D10">
-        <v>6.695206858419079</v>
+        <v>6.718305850518059</v>
       </c>
       <c r="E10">
-        <v>8.30885635299369</v>
+        <v>8.215004057174042</v>
       </c>
       <c r="F10">
-        <v>19.4016345062847</v>
+        <v>18.92330289080408</v>
       </c>
       <c r="G10">
-        <v>20.84947154173873</v>
+        <v>20.36838606066538</v>
       </c>
       <c r="H10">
-        <v>2.098124783089179</v>
+        <v>2.084544308585326</v>
       </c>
       <c r="J10">
-        <v>8.21514378420124</v>
+        <v>8.38864141382305</v>
       </c>
       <c r="K10">
-        <v>11.56816521467864</v>
+        <v>11.28478423296959</v>
       </c>
       <c r="L10">
-        <v>6.019034364036949</v>
+        <v>9.997519161041026</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.762930164732984</v>
       </c>
       <c r="N10">
-        <v>9.431657115318478</v>
+        <v>5.978720562063895</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.54468286885675</v>
       </c>
       <c r="Q10">
-        <v>13.35038656514574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.00860458909941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.70038981869935</v>
+        <v>30.69338491510301</v>
       </c>
       <c r="C11">
-        <v>16.98737751581355</v>
+        <v>17.22565217089322</v>
       </c>
       <c r="D11">
-        <v>6.490034125024015</v>
+        <v>6.536291652162903</v>
       </c>
       <c r="E11">
-        <v>7.913363819772541</v>
+        <v>7.832821160952184</v>
       </c>
       <c r="F11">
-        <v>18.4056847173608</v>
+        <v>17.85316670640441</v>
       </c>
       <c r="G11">
-        <v>19.51546747008218</v>
+        <v>20.07334352475132</v>
       </c>
       <c r="H11">
-        <v>2.977400176421683</v>
+        <v>2.958522711669607</v>
       </c>
       <c r="J11">
-        <v>7.921538956947348</v>
+        <v>7.830854209263764</v>
       </c>
       <c r="K11">
-        <v>10.96277625609186</v>
+        <v>10.72317710065918</v>
       </c>
       <c r="L11">
-        <v>6.025149729435132</v>
+        <v>9.647094345502074</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.304324577261454</v>
       </c>
       <c r="N11">
-        <v>8.968543098593006</v>
+        <v>5.996380198911441</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>9.060650372435608</v>
       </c>
       <c r="Q11">
-        <v>12.69796457503113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.29982394327883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.06913470479232</v>
+        <v>31.06030201889873</v>
       </c>
       <c r="C12">
-        <v>17.58380513218709</v>
+        <v>17.7363110025004</v>
       </c>
       <c r="D12">
-        <v>6.268857815449073</v>
+        <v>6.322257339446952</v>
       </c>
       <c r="E12">
-        <v>7.682194386954261</v>
+        <v>7.609485862659601</v>
       </c>
       <c r="F12">
-        <v>17.50947832191418</v>
+        <v>16.96594245147002</v>
       </c>
       <c r="G12">
-        <v>18.28031885115583</v>
+        <v>19.35759783526172</v>
       </c>
       <c r="H12">
-        <v>4.225521955270607</v>
+        <v>4.210373795556007</v>
       </c>
       <c r="J12">
-        <v>7.695848117996213</v>
+        <v>7.558340986276754</v>
       </c>
       <c r="K12">
-        <v>10.59608173015013</v>
+        <v>10.41470473564622</v>
       </c>
       <c r="L12">
-        <v>6.095414651031787</v>
+        <v>9.479130690995312</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.004520973511241</v>
       </c>
       <c r="N12">
-        <v>8.488395297246912</v>
+        <v>6.07474413361081</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>8.562924249677462</v>
       </c>
       <c r="Q12">
-        <v>12.15275992847763</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.7625919536721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.97802645979383</v>
+        <v>30.9709443504017</v>
       </c>
       <c r="C13">
-        <v>17.95291213660949</v>
+        <v>18.0282731241603</v>
       </c>
       <c r="D13">
-        <v>6.019506453691335</v>
+        <v>6.06297208330261</v>
       </c>
       <c r="E13">
-        <v>7.570795070984948</v>
+        <v>7.503773926524627</v>
       </c>
       <c r="F13">
-        <v>16.63128285202721</v>
+        <v>16.18613226590655</v>
       </c>
       <c r="G13">
-        <v>17.02859115222605</v>
+        <v>18.05757938055188</v>
       </c>
       <c r="H13">
-        <v>5.539147507598464</v>
+        <v>5.529153715434045</v>
       </c>
       <c r="J13">
-        <v>7.509884943055662</v>
+        <v>7.483870843856742</v>
       </c>
       <c r="K13">
-        <v>10.39918441246196</v>
+        <v>10.28246983304297</v>
       </c>
       <c r="L13">
-        <v>6.213623123504516</v>
+        <v>9.415443653510566</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.833988712565352</v>
       </c>
       <c r="N13">
-        <v>7.958632961658354</v>
+        <v>6.197845495502488</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>8.017684407765273</v>
       </c>
       <c r="Q13">
-        <v>11.65747995424442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.34327907536237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.70503616953574</v>
+        <v>30.7007385675372</v>
       </c>
       <c r="C14">
-        <v>18.11316074471796</v>
+        <v>18.13728902038211</v>
       </c>
       <c r="D14">
-        <v>5.831928811226269</v>
+        <v>5.861706035380091</v>
       </c>
       <c r="E14">
-        <v>7.565369835031285</v>
+        <v>7.502254771222733</v>
       </c>
       <c r="F14">
-        <v>16.02956024079806</v>
+        <v>15.68858542010093</v>
       </c>
       <c r="G14">
-        <v>16.14632371269082</v>
+        <v>16.89333130308569</v>
       </c>
       <c r="H14">
-        <v>6.481961594474532</v>
+        <v>6.475384696384379</v>
       </c>
       <c r="J14">
-        <v>7.399899427778163</v>
+        <v>7.502535207609849</v>
       </c>
       <c r="K14">
-        <v>10.34784255049139</v>
+        <v>10.26960009995126</v>
       </c>
       <c r="L14">
-        <v>6.3231481320009</v>
+        <v>9.41014228926017</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.785321189319345</v>
       </c>
       <c r="N14">
-        <v>7.564235212373399</v>
+        <v>6.308484640577995</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>7.613668740553062</v>
       </c>
       <c r="Q14">
-        <v>11.33838092105048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.10293826444833</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.53895684542433</v>
+        <v>30.53609367908305</v>
       </c>
       <c r="C15">
-        <v>18.10289081880226</v>
+        <v>18.11588265481596</v>
       </c>
       <c r="D15">
-        <v>5.780310573870401</v>
+        <v>5.804058422701383</v>
       </c>
       <c r="E15">
-        <v>7.573452806843965</v>
+        <v>7.511940046064771</v>
       </c>
       <c r="F15">
-        <v>15.89041485202464</v>
+        <v>15.58925108343777</v>
       </c>
       <c r="G15">
-        <v>15.93339498662932</v>
+        <v>16.50890785509551</v>
       </c>
       <c r="H15">
-        <v>6.696156824157957</v>
+        <v>6.6907458724794</v>
       </c>
       <c r="J15">
-        <v>7.382371649239909</v>
+        <v>7.538201635456055</v>
       </c>
       <c r="K15">
-        <v>10.3672792830048</v>
+        <v>10.29617729004734</v>
       </c>
       <c r="L15">
-        <v>6.35058417182019</v>
+        <v>9.421818629637682</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.800698131552289</v>
       </c>
       <c r="N15">
-        <v>7.456797911065842</v>
+        <v>6.335696085119596</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>7.504410020391846</v>
       </c>
       <c r="Q15">
-        <v>11.27375604179547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.06790003986941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.5775249908952</v>
+        <v>29.58175809609806</v>
       </c>
       <c r="C16">
-        <v>17.60482650315022</v>
+        <v>17.62722649017388</v>
       </c>
       <c r="D16">
-        <v>5.729340597127167</v>
+        <v>5.731114575878265</v>
       </c>
       <c r="E16">
-        <v>7.571167828908715</v>
+        <v>7.5162262087333</v>
       </c>
       <c r="F16">
-        <v>15.97925202986261</v>
+        <v>15.79794586161651</v>
       </c>
       <c r="G16">
-        <v>15.99474846583019</v>
+        <v>15.74051669569174</v>
       </c>
       <c r="H16">
-        <v>6.439324816475398</v>
+        <v>6.440033215210522</v>
       </c>
       <c r="J16">
-        <v>7.472194837412551</v>
+        <v>7.836071185976219</v>
       </c>
       <c r="K16">
-        <v>10.64061838277911</v>
+        <v>10.55958743903949</v>
       </c>
       <c r="L16">
-        <v>6.314014898169469</v>
+        <v>9.543224211786859</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.031599507177869</v>
       </c>
       <c r="N16">
-        <v>7.357359669165881</v>
+        <v>6.296888358972204</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>7.40947627105352</v>
       </c>
       <c r="Q16">
-        <v>11.40527303651211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.28633233485677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.9752838901541</v>
+        <v>28.98326440763288</v>
       </c>
       <c r="C17">
-        <v>17.12553826689505</v>
+        <v>17.17635694410216</v>
       </c>
       <c r="D17">
-        <v>5.79120725765704</v>
+        <v>5.785982598107582</v>
       </c>
       <c r="E17">
-        <v>7.561968527689193</v>
+        <v>7.508174736339675</v>
       </c>
       <c r="F17">
-        <v>16.36795670401905</v>
+        <v>16.21115820627792</v>
       </c>
       <c r="G17">
-        <v>16.51870733598543</v>
+        <v>15.89558071506499</v>
       </c>
       <c r="H17">
-        <v>5.690006557960956</v>
+        <v>5.688928266924393</v>
       </c>
       <c r="J17">
-        <v>7.59874624760075</v>
+        <v>8.047207764649949</v>
       </c>
       <c r="K17">
-        <v>10.87292137540491</v>
+        <v>10.77145650668058</v>
       </c>
       <c r="L17">
-        <v>6.223741584592443</v>
+        <v>9.655740914923518</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.221546885696681</v>
       </c>
       <c r="N17">
-        <v>7.494327570030566</v>
+        <v>6.205018435242305</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>7.55449472368973</v>
       </c>
       <c r="Q17">
-        <v>11.67436294843501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>11.57211214941917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.62836195312163</v>
+        <v>28.63787890271459</v>
       </c>
       <c r="C18">
-        <v>16.6166477952285</v>
+        <v>16.72419127822604</v>
       </c>
       <c r="D18">
-        <v>5.958774821182257</v>
+        <v>5.95327440178535</v>
       </c>
       <c r="E18">
-        <v>7.609214405814497</v>
+        <v>7.5509653475123</v>
       </c>
       <c r="F18">
-        <v>17.05657679568405</v>
+        <v>16.87032111241311</v>
       </c>
       <c r="G18">
-        <v>17.48830609519286</v>
+        <v>16.66705999173311</v>
       </c>
       <c r="H18">
-        <v>4.435884284737049</v>
+        <v>4.438839327190392</v>
       </c>
       <c r="J18">
-        <v>7.771365966597796</v>
+        <v>8.240979948521911</v>
       </c>
       <c r="K18">
-        <v>11.117346850181</v>
+        <v>10.98442688528496</v>
       </c>
       <c r="L18">
-        <v>6.106203652673113</v>
+        <v>9.788383974337714</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.409490908212604</v>
       </c>
       <c r="N18">
-        <v>7.857920206186465</v>
+        <v>6.085085015447794</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.930584968651612</v>
       </c>
       <c r="Q18">
-        <v>12.09122421989477</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>11.96672162716302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.51833620406821</v>
+        <v>28.52751055061786</v>
       </c>
       <c r="C19">
-        <v>16.13262854854948</v>
+        <v>16.31752993444658</v>
       </c>
       <c r="D19">
-        <v>6.200597194713308</v>
+        <v>6.198341602099601</v>
       </c>
       <c r="E19">
-        <v>7.789276589635771</v>
+        <v>7.720602327739357</v>
       </c>
       <c r="F19">
-        <v>17.94209671969064</v>
+        <v>17.69297429480634</v>
       </c>
       <c r="G19">
-        <v>18.74331394658047</v>
+        <v>17.80217765393278</v>
       </c>
       <c r="H19">
-        <v>3.044185468688593</v>
+        <v>3.048142487030327</v>
       </c>
       <c r="J19">
-        <v>7.971382822210405</v>
+        <v>8.426237204897499</v>
       </c>
       <c r="K19">
-        <v>11.38515713559501</v>
+        <v>11.20822355761595</v>
       </c>
       <c r="L19">
-        <v>6.019969080188589</v>
+        <v>9.942169434757158</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.606478248360216</v>
       </c>
       <c r="N19">
-        <v>8.382760128022806</v>
+        <v>5.993748071850207</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>8.471217007382441</v>
       </c>
       <c r="Q19">
-        <v>12.60233806036493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.43146470858546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.07868227903958</v>
+        <v>29.08226649166856</v>
       </c>
       <c r="C20">
-        <v>15.75485326929495</v>
+        <v>16.07236547440584</v>
       </c>
       <c r="D20">
-        <v>6.63520321200327</v>
+        <v>6.64632398799274</v>
       </c>
       <c r="E20">
-        <v>8.294213262880715</v>
+        <v>8.202098574832965</v>
       </c>
       <c r="F20">
-        <v>19.34143604334212</v>
+        <v>18.93640516744556</v>
       </c>
       <c r="G20">
-        <v>20.73649114658051</v>
+        <v>19.88158409974244</v>
       </c>
       <c r="H20">
-        <v>2.007535753518926</v>
+        <v>2.002794306270634</v>
       </c>
       <c r="J20">
-        <v>8.242860554720664</v>
+        <v>8.56587823164832</v>
       </c>
       <c r="K20">
-        <v>11.70258224879892</v>
+        <v>11.43647748331357</v>
       </c>
       <c r="L20">
-        <v>6.015572842771243</v>
+        <v>10.10283280060659</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.849687921068989</v>
       </c>
       <c r="N20">
-        <v>9.315265017472262</v>
+        <v>5.975931748023406</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>9.428302173283793</v>
       </c>
       <c r="Q20">
-        <v>13.36117937039375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.07477036594681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.8298729410481</v>
+        <v>30.81918980468232</v>
       </c>
       <c r="C21">
-        <v>16.47010205193308</v>
+        <v>16.80046528928581</v>
       </c>
       <c r="D21">
-        <v>6.859360556134969</v>
+        <v>6.927400382104635</v>
       </c>
       <c r="E21">
-        <v>8.4175610602307</v>
+        <v>8.321473673220536</v>
       </c>
       <c r="F21">
-        <v>19.7070110181183</v>
+        <v>18.97464559446187</v>
       </c>
       <c r="G21">
-        <v>21.33215041199574</v>
+        <v>22.18637857300003</v>
       </c>
       <c r="H21">
-        <v>2.276060207608722</v>
+        <v>2.241872837186577</v>
       </c>
       <c r="J21">
-        <v>8.206131025139404</v>
+        <v>7.880608482334295</v>
       </c>
       <c r="K21">
-        <v>11.38074181078553</v>
+        <v>11.01506499600612</v>
       </c>
       <c r="L21">
-        <v>6.033415305842595</v>
+        <v>9.814594042792317</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.626892590870023</v>
       </c>
       <c r="N21">
-        <v>9.758358193126631</v>
+        <v>5.987802969371814</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.873249069982755</v>
       </c>
       <c r="Q21">
-        <v>13.44273143546035</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.90388771682049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.92278212696352</v>
+        <v>31.90281896287639</v>
       </c>
       <c r="C22">
-        <v>16.94826298934921</v>
+        <v>17.27555146411288</v>
       </c>
       <c r="D22">
-        <v>6.985548053409259</v>
+        <v>7.09430802545858</v>
       </c>
       <c r="E22">
-        <v>8.468986358495036</v>
+        <v>8.373224468788958</v>
       </c>
       <c r="F22">
-        <v>19.896553099321</v>
+        <v>18.93637142909386</v>
       </c>
       <c r="G22">
-        <v>21.65600775479611</v>
+        <v>23.74160676856461</v>
       </c>
       <c r="H22">
-        <v>2.444151091937907</v>
+        <v>2.391383220432257</v>
       </c>
       <c r="J22">
-        <v>8.173627016661369</v>
+        <v>7.468006451251926</v>
       </c>
       <c r="K22">
-        <v>11.15628434420672</v>
+        <v>10.7202537475413</v>
       </c>
       <c r="L22">
-        <v>6.041794081855889</v>
+        <v>9.624355661542348</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.47537479157783</v>
       </c>
       <c r="N22">
-        <v>10.00097724770222</v>
+        <v>5.993215835052264</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>10.11585021190877</v>
       </c>
       <c r="Q22">
-        <v>13.47290575818015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.75513412980814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.34407900943535</v>
+        <v>31.32942767673801</v>
       </c>
       <c r="C23">
-        <v>16.69472563112962</v>
+        <v>17.03430952290426</v>
       </c>
       <c r="D23">
-        <v>6.918398878779088</v>
+        <v>6.998787959434563</v>
       </c>
       <c r="E23">
-        <v>8.441541470855993</v>
+        <v>8.34428421554165</v>
       </c>
       <c r="F23">
-        <v>19.79396969452921</v>
+        <v>18.98604138213845</v>
       </c>
       <c r="G23">
-        <v>21.48087268719579</v>
+        <v>22.70974520904338</v>
       </c>
       <c r="H23">
-        <v>2.354726850390985</v>
+        <v>2.312722536303557</v>
       </c>
       <c r="J23">
-        <v>8.190413057663013</v>
+        <v>7.738057627147918</v>
       </c>
       <c r="K23">
-        <v>11.2752262622305</v>
+        <v>10.88750527115797</v>
       </c>
       <c r="L23">
-        <v>6.037343657410557</v>
+        <v>9.73026274935334</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.565600230189491</v>
       </c>
       <c r="N23">
-        <v>9.872181559908768</v>
+        <v>5.990822692343278</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.987519155689021</v>
       </c>
       <c r="Q23">
-        <v>13.45546795282623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.85784318458738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.05080590316241</v>
+        <v>29.05442261657822</v>
       </c>
       <c r="C24">
-        <v>15.69812585280893</v>
+        <v>16.02300988081769</v>
       </c>
       <c r="D24">
-        <v>6.659851313334072</v>
+        <v>6.670998861865379</v>
       </c>
       <c r="E24">
-        <v>8.337538659775069</v>
+        <v>8.243852147690255</v>
       </c>
       <c r="F24">
-        <v>19.43637644842653</v>
+        <v>19.0262684344978</v>
       </c>
       <c r="G24">
-        <v>20.86756089553029</v>
+        <v>19.9885237729625</v>
       </c>
       <c r="H24">
-        <v>2.009564948261104</v>
+        <v>2.004870101978241</v>
       </c>
       <c r="J24">
-        <v>8.26599618448541</v>
+        <v>8.59127499036819</v>
       </c>
       <c r="K24">
-        <v>11.74387837558456</v>
+        <v>11.47174811831804</v>
       </c>
       <c r="L24">
-        <v>6.020001830788038</v>
+        <v>10.1269929287663</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.879723285727144</v>
       </c>
       <c r="N24">
-        <v>9.36931532394525</v>
+        <v>5.979167867024018</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.484128354461987</v>
       </c>
       <c r="Q24">
-        <v>13.41800086491083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.12774339246335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35772740773038</v>
+        <v>26.37641899661658</v>
       </c>
       <c r="C25">
-        <v>14.54730305445277</v>
+        <v>14.72438332353042</v>
       </c>
       <c r="D25">
-        <v>6.372975054386309</v>
+        <v>6.381536725012221</v>
       </c>
       <c r="E25">
-        <v>8.225103598352895</v>
+        <v>8.147606136378997</v>
       </c>
       <c r="F25">
-        <v>19.11459511744808</v>
+        <v>18.79243528661088</v>
       </c>
       <c r="G25">
-        <v>20.31061158690252</v>
+        <v>19.33602813177967</v>
       </c>
       <c r="H25">
-        <v>1.622596264753205</v>
+        <v>1.647835239680883</v>
       </c>
       <c r="J25">
-        <v>8.371115955989298</v>
+        <v>8.731758589728814</v>
       </c>
       <c r="K25">
-        <v>12.28482886057084</v>
+        <v>12.01330121997816</v>
       </c>
       <c r="L25">
-        <v>6.000168248653435</v>
+        <v>10.52050932632345</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.202995163282723</v>
       </c>
       <c r="N25">
-        <v>8.796083688605764</v>
+        <v>5.959588863248953</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.905685467644938</v>
       </c>
       <c r="Q25">
-        <v>13.43403441472007</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.20103841259149</v>
       </c>
     </row>
   </sheetData>
